--- a/Valores_cambio.xlsx
+++ b/Valores_cambio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e624359bacdd854/Área de Trabalho/Deepen/CTG/CTG_models/CTG_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aruav\Desktop\Deepen\CTG\prototipe_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFD856B8-88AB-4E6A-BACE-485F0C9377C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FA5C12-8CA8-4D8D-9686-2F6A499B6177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3E34E84B-5ED8-4741-A1E7-741D51880439}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3E34E84B-5ED8-4741-A1E7-741D51880439}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,41 +36,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Data</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>InCompanyLoan</t>
   </si>
   <si>
-    <t>InvestimentosDolar</t>
-  </si>
-  <si>
-    <t>ImapactoProv</t>
-  </si>
-  <si>
-    <t>ImapctoPior</t>
-  </si>
-  <si>
-    <t>ImpactoMelhor</t>
-  </si>
-  <si>
-    <t>CambioProv</t>
-  </si>
-  <si>
-    <t>CambioPior</t>
-  </si>
-  <si>
-    <t>CambioMelhor</t>
+    <t>data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,9 +85,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +395,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -415,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67360294-82C5-45D9-9BF5-69E6F0EC17FF}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,392 +418,277 @@
     <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44987</v>
       </c>
       <c r="B2">
         <v>50000</v>
       </c>
-      <c r="C2">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45019</v>
       </c>
       <c r="B3">
         <v>55000</v>
       </c>
-      <c r="C3">
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45049</v>
       </c>
       <c r="B4">
         <v>120000</v>
       </c>
-      <c r="C4">
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45080</v>
       </c>
       <c r="B5">
         <v>55000</v>
       </c>
-      <c r="C5">
-        <v>3200000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45110</v>
       </c>
       <c r="B6">
         <v>55000</v>
       </c>
-      <c r="C6">
-        <v>3256000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45141</v>
       </c>
       <c r="B7">
         <v>55000</v>
       </c>
-      <c r="C7">
-        <v>3200000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45172</v>
       </c>
       <c r="B8">
         <v>55000</v>
       </c>
-      <c r="C8">
-        <v>3200000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45202</v>
       </c>
       <c r="B9">
         <v>55000</v>
       </c>
-      <c r="C9">
-        <v>3200000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45233</v>
       </c>
       <c r="B10">
         <v>55000</v>
       </c>
-      <c r="C10">
-        <v>3200000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45263</v>
       </c>
       <c r="B11">
         <v>55000</v>
       </c>
-      <c r="C11">
-        <v>3200000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45294</v>
       </c>
       <c r="B12">
         <v>55000</v>
       </c>
-      <c r="C12">
-        <v>3400000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45325</v>
       </c>
       <c r="B13">
         <v>55000</v>
       </c>
-      <c r="C13">
-        <v>3200000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45354</v>
       </c>
       <c r="B14">
         <v>55000</v>
       </c>
-      <c r="C14">
-        <v>3200000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45385</v>
       </c>
       <c r="B15">
         <v>55000</v>
       </c>
-      <c r="C15">
-        <v>3120000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45415</v>
       </c>
       <c r="B16">
         <v>55000</v>
       </c>
-      <c r="C16">
-        <v>3200000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45446</v>
       </c>
       <c r="B17">
         <v>55000</v>
       </c>
-      <c r="C17">
-        <v>3200000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45476</v>
       </c>
       <c r="B18">
         <v>55000</v>
       </c>
-      <c r="C18">
-        <v>3200000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45507</v>
       </c>
       <c r="B19">
         <v>55000</v>
       </c>
-      <c r="C19">
-        <v>3250000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45538</v>
       </c>
       <c r="B20">
         <v>55000</v>
       </c>
-      <c r="C20">
-        <v>3200000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45568</v>
       </c>
       <c r="B21">
         <v>55000</v>
       </c>
-      <c r="C21">
-        <v>3200000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45599</v>
       </c>
       <c r="B22">
         <v>55000</v>
       </c>
-      <c r="C22">
-        <v>3400000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45629</v>
       </c>
       <c r="B23">
         <v>55000</v>
       </c>
-      <c r="C23">
-        <v>3400000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45660</v>
       </c>
       <c r="B24">
         <v>55000</v>
       </c>
-      <c r="C24">
-        <v>3400000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45691</v>
       </c>
       <c r="B25">
         <v>55000</v>
       </c>
-      <c r="C25">
-        <v>3400000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45719</v>
       </c>
       <c r="B26">
         <v>55000</v>
       </c>
-      <c r="C26">
-        <v>3400000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45750</v>
       </c>
       <c r="B27">
         <v>55000</v>
       </c>
-      <c r="C27">
-        <v>3400000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45780</v>
       </c>
       <c r="B28">
         <v>55000</v>
       </c>
-      <c r="C28">
-        <v>3400000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45811</v>
       </c>
       <c r="B29">
         <v>55000</v>
       </c>
-      <c r="C29">
-        <v>3400000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45841</v>
       </c>
       <c r="B30">
         <v>55000</v>
       </c>
-      <c r="C30">
-        <v>3400000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45872</v>
       </c>
       <c r="B31">
         <v>55000</v>
       </c>
-      <c r="C31">
-        <v>3400000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45903</v>
       </c>
       <c r="B32">
         <v>55000</v>
       </c>
-      <c r="C32">
-        <v>3400000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45933</v>
       </c>
       <c r="B33">
         <v>55000</v>
       </c>
-      <c r="C33">
-        <v>3400000</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>